--- a/downloads/mcq.xlsx
+++ b/downloads/mcq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://swchs365-my.sharepoint.com/personal/stfelree_swchs_net/Documents/KS5 Music Tech/Private/Tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sch/Documents/GitHub/teacher-tools/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="850" documentId="8_{92FCB6A4-FE08-A34E-B2DC-EE222F211932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{266BEE5A-BDA9-5246-B959-E4B454B15C2F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06BD8B7-5B33-974A-9908-91087AAF687A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F1CCD67E-1967-B847-A30E-CC2F0874E884}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F1CCD67E-1967-B847-A30E-CC2F0874E884}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -606,13 +606,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1293,14 +1292,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19E8F46-2BBE-3D47-B12E-2CDF6E3FBED9}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="63.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
@@ -1311,19 +1310,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="110" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="20">
         <v>1</v>
       </c>
-      <c r="E1" s="21">
+      <c r="E1" s="20">
         <v>2</v>
       </c>
-      <c r="F1" s="21">
+      <c r="F1" s="20">
         <v>3</v>
       </c>
-      <c r="G1" s="21">
+      <c r="G1" s="20">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1333,9 +1332,9 @@
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <f ca="1">IF(B2="y",RAND(),"")</f>
-        <v>9.3476922662158235E-2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>0.73874596813386972</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
@@ -1364,9 +1363,9 @@
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A72" ca="1" si="0">IF(B3="y",RAND(),"")</f>
-        <v>0.62870514656175203</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>0.57010815536475812</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
@@ -1395,9 +1394,9 @@
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82811818241728241</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>0.49572806778630973</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
@@ -1426,9 +1425,9 @@
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48741641922960288</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>0.51060937937972806</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
@@ -1457,9 +1456,9 @@
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8817327159779378E-2</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>0.43788607040974559</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
@@ -1488,9 +1487,9 @@
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68710284046612546</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>0.65367428687813711</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
@@ -1519,9 +1518,9 @@
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33522338064248636</v>
-      </c>
-      <c r="B8" s="4" t="s">
+        <v>0.10107032592614595</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
@@ -1550,9 +1549,9 @@
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72801736666789119</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>0.16634875304323427</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
@@ -1581,9 +1580,9 @@
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23571841699274143</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>0.49927989708106046</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
@@ -1612,9 +1611,9 @@
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75546452748938953</v>
-      </c>
-      <c r="B11" s="4" t="s">
+        <v>0.61909541456179962</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
@@ -1643,9 +1642,9 @@
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79503993971608167</v>
-      </c>
-      <c r="B12" s="4" t="s">
+        <v>0.37262729907662651</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
@@ -1674,9 +1673,9 @@
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1713706395389294E-2</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>0.65325852733697931</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
@@ -1705,9 +1704,9 @@
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7176230167274612</v>
-      </c>
-      <c r="B14" s="4" t="s">
+        <v>0.71530217495646409</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
@@ -1736,9 +1735,9 @@
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14131092022907366</v>
-      </c>
-      <c r="B15" s="4" t="s">
+        <v>0.20499220653689043</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
@@ -1767,9 +1766,9 @@
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20099977227766863</v>
-      </c>
-      <c r="B16" s="4" t="s">
+        <v>0.61547567151951443</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
@@ -1798,9 +1797,9 @@
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36984856783402331</v>
-      </c>
-      <c r="B17" s="4" t="s">
+        <v>0.36369163130822824</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
@@ -1829,9 +1828,9 @@
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73129936441205834</v>
-      </c>
-      <c r="B18" s="4" t="s">
+        <v>0.34691624122832709</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
@@ -1860,9 +1859,9 @@
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9250542001020956</v>
-      </c>
-      <c r="B19" s="4" t="s">
+        <v>0.18444718438850771</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
@@ -1891,9 +1890,9 @@
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81286336715757646</v>
-      </c>
-      <c r="B20" s="4" t="s">
+        <v>0.75651165550522981</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
@@ -1922,9 +1921,9 @@
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9585682123090552</v>
-      </c>
-      <c r="B21" s="4" t="s">
+        <v>0.77258859624482901</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
@@ -1993,9 +1992,9 @@
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45648763344920562</v>
-      </c>
-      <c r="B26" s="4" t="s">
+        <v>0.5783904982372805</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C26" t="s">
@@ -2024,9 +2023,9 @@
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90422028063060789</v>
-      </c>
-      <c r="B27" s="4" t="s">
+        <v>7.5700130978480273E-2</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
@@ -2055,9 +2054,9 @@
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87217956021641696</v>
-      </c>
-      <c r="B28" s="4" t="s">
+        <v>0.34867315637704044</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
@@ -2086,27 +2085,27 @@
     <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37207925522249807</v>
-      </c>
-      <c r="B29" s="4" t="s">
+        <v>0.15377594107175629</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="22">
         <v>1</v>
       </c>
       <c r="I29" t="str">
@@ -2117,9 +2116,9 @@
     <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98213321824787503</v>
-      </c>
-      <c r="B30" s="4" t="s">
+        <v>0.98753059746505911</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C30" t="s">
@@ -2148,9 +2147,9 @@
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73872939949331773</v>
-      </c>
-      <c r="B31" s="4" t="s">
+        <v>0.61035733664512226</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
@@ -2179,9 +2178,9 @@
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5755256836958291E-2</v>
-      </c>
-      <c r="B32" s="4" t="s">
+        <v>0.38098173779851419</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C32" t="s">
@@ -2210,9 +2209,9 @@
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27224281106241255</v>
-      </c>
-      <c r="B33" s="4" t="s">
+        <v>0.90977012259966139</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C33" t="s">
@@ -2241,9 +2240,9 @@
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78303383144450289</v>
-      </c>
-      <c r="B34" s="4" t="s">
+        <v>0.33267262942416642</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C34" t="s">
@@ -2272,9 +2271,9 @@
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32127998292044202</v>
-      </c>
-      <c r="B35" s="4" t="s">
+        <v>0.52711396096247509</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C35" t="s">
@@ -2303,9 +2302,9 @@
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23804373471953044</v>
-      </c>
-      <c r="B36" s="4" t="s">
+        <v>0.25958125581328839</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C36" t="s">
@@ -2344,9 +2343,9 @@
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44937460799873263</v>
-      </c>
-      <c r="B38" s="4" t="s">
+        <v>0.80800566994206668</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C38" t="s">
@@ -2375,9 +2374,9 @@
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62493616321658774</v>
-      </c>
-      <c r="B39" s="4" t="s">
+        <v>0.83890487205545095</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C39" t="s">
@@ -2406,9 +2405,9 @@
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76035373326845068</v>
-      </c>
-      <c r="B40" s="4" t="s">
+        <v>0.17557787069912389</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C40" t="s">
@@ -2437,9 +2436,9 @@
     <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72958357703315524</v>
-      </c>
-      <c r="B41" s="4" t="s">
+        <v>0.46062135114900038</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C41" t="s">
@@ -2468,9 +2467,9 @@
     <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11273381478557942</v>
-      </c>
-      <c r="B42" s="4" t="s">
+        <v>0.24994468422041283</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C42" t="s">
@@ -2499,9 +2498,9 @@
     <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54094247090648628</v>
-      </c>
-      <c r="B43" s="4" t="s">
+        <v>0.73480433851286919</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C43" t="s">
@@ -2530,9 +2529,9 @@
     <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19563269151191953</v>
-      </c>
-      <c r="B44" s="4" t="s">
+        <v>0.44427826199190412</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C44" t="s">
@@ -2561,9 +2560,9 @@
     <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45652570494669176</v>
-      </c>
-      <c r="B45" s="4" t="s">
+        <v>0.57486786074609719</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C45" t="s">
@@ -2592,9 +2591,9 @@
     <row r="46" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93352550668327394</v>
-      </c>
-      <c r="B46" s="4" t="s">
+        <v>0.21340971009883836</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C46" t="s">
@@ -2623,9 +2622,9 @@
     <row r="47" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79877235464543972</v>
-      </c>
-      <c r="B47" s="4" t="s">
+        <v>0.4033803292937318</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C47" t="s">
@@ -2654,9 +2653,9 @@
     <row r="48" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79171544309341846</v>
-      </c>
-      <c r="B48" s="4" t="s">
+        <v>0.70337551975140411</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C48" t="s">
@@ -3435,28 +3434,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="83.1640625" customWidth="1"/>
-    <col min="4" max="8" width="10.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <f ca="1">LARGE(Questions!$A$2:$A$106,1)</f>
-        <v>0.98213321824787503</v>
-      </c>
-      <c r="B2" s="8">
+        <v>0.98753059746505911</v>
+      </c>
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="str">
+      <c r="C2" s="8" t="str">
         <f ca="1">VLOOKUP($A2,Questions!$A$2:$H$106,COLUMN(C2),FALSE)</f>
         <v>Which component controls the waveform?</v>
       </c>
@@ -3486,14 +3484,14 @@
       </c>
       <c r="N2">
         <f ca="1">RAND()</f>
-        <v>0.49931516362901729</v>
+        <v>0.64113533036882375</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="6" t="str">
         <f ca="1">OFFSET($C$2,0,RANK(N2,$N$2:$N$5))</f>
         <v>Filter</v>
       </c>
@@ -3503,14 +3501,14 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N5" ca="1" si="0">RAND()</f>
-        <v>0.48163480433343209</v>
+        <v>0.57872342873131766</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="str">
+      <c r="C4" s="6" t="str">
         <f t="shared" ref="C4:C6" ca="1" si="1">OFFSET($C$2,0,RANK(N3,$N$2:$N$5))</f>
         <v>VCA</v>
       </c>
@@ -3520,14 +3518,14 @@
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82569154295169289</v>
+        <v>0.770799065829324</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="str">
+      <c r="C5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>VCO</v>
       </c>
@@ -3537,14 +3535,14 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37208161470206513</v>
+        <v>0.5274227401918743</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="str">
+      <c r="C6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Low-frequency oscillator</v>
       </c>
@@ -3560,377 +3558,377 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <f ca="1">LARGE(Questions!$A$2:$A$106,2)</f>
-        <v>0.9585682123090552</v>
-      </c>
-      <c r="B8" s="10">
+        <v>0.90977012259966139</v>
+      </c>
+      <c r="B8" s="9">
         <v>2</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="10" t="str">
         <f ca="1">VLOOKUP($A8,Questions!$A$2:$H$106,COLUMN(C8),FALSE)</f>
-        <v>Identify the most obvious bass drum mic</v>
+        <v>Which is the highest note?</v>
       </c>
       <c r="D8" s="2" t="str">
         <f ca="1">VLOOKUP($A8,Questions!$A$2:$I$106,COLUMN(D8),FALSE)</f>
-        <v>Shure SM58</v>
+        <v>4'</v>
       </c>
       <c r="E8" s="2" t="str">
         <f ca="1">VLOOKUP($A8,Questions!$A$2:$I$106,COLUMN(E8),FALSE)</f>
-        <v>AKG D112</v>
+        <v>8'</v>
       </c>
       <c r="F8" s="2" t="str">
         <f ca="1">VLOOKUP($A8,Questions!$A$2:$I$106,COLUMN(F8),FALSE)</f>
-        <v>Rode NT5</v>
+        <v>16'</v>
       </c>
       <c r="G8" s="2" t="str">
         <f ca="1">VLOOKUP($A8,Questions!$A$2:$I$106,COLUMN(G8),FALSE)</f>
-        <v>Neumann U87</v>
+        <v>32'</v>
       </c>
       <c r="H8" s="2">
         <f ca="1">VLOOKUP($A8,Questions!$A$2:$I$106,COLUMN(H8),FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="str">
         <f ca="1">VLOOKUP($A8,Questions!$A$2:$I$106,COLUMN(I8),FALSE)</f>
-        <v>AKG D112</v>
+        <v>4'</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="str">
+      <c r="C9" s="6" t="str">
         <f ca="1">OFFSET($C$8,0,RANK(N2,$N$2:$N$5))</f>
-        <v>AKG D112</v>
+        <v>8'</v>
       </c>
       <c r="I9" t="str">
         <f ca="1">$I$8</f>
-        <v>AKG D112</v>
+        <v>4'</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7" t="str">
+      <c r="C10" s="6" t="str">
         <f t="shared" ref="C10:C12" ca="1" si="3">OFFSET($C$8,0,RANK(N3,$N$2:$N$5))</f>
-        <v>Rode NT5</v>
+        <v>16'</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" ref="I10:I13" ca="1" si="4">$I$8</f>
-        <v>AKG D112</v>
+        <v>4'</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="str">
+      <c r="C11" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Shure SM58</v>
+        <v>4'</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>AKG D112</v>
+        <v>4'</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7" t="str">
+      <c r="C12" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Neumann U87</v>
+        <v>32'</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>AKG D112</v>
+        <v>4'</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>AKG D112</v>
+        <v>4'</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <f ca="1">LARGE(Questions!$A$2:$A$106,3)</f>
-        <v>0.93352550668327394</v>
-      </c>
-      <c r="B14" s="12">
+        <v>0.83890487205545095</v>
+      </c>
+      <c r="B14" s="11">
         <v>3</v>
       </c>
-      <c r="C14" s="13" t="str">
+      <c r="C14" s="12" t="str">
         <f ca="1">VLOOKUP($A14,Questions!$A$2:$H$106,COLUMN(C14),FALSE)</f>
-        <v>Pick the odd one out</v>
+        <v>Which will cut low frequencies?</v>
       </c>
       <c r="D14" s="2" t="str">
         <f ca="1">VLOOKUP($A14,Questions!$A$2:$I$106,COLUMN(D14),FALSE)</f>
-        <v>High cut filter</v>
+        <v>HPF</v>
       </c>
       <c r="E14" s="2" t="str">
         <f ca="1">VLOOKUP($A14,Questions!$A$2:$I$106,COLUMN(E14),FALSE)</f>
-        <v>Low pass filter</v>
+        <v>LPF</v>
       </c>
       <c r="F14" s="2" t="str">
         <f ca="1">VLOOKUP($A14,Questions!$A$2:$I$106,COLUMN(F14),FALSE)</f>
-        <v>High pass filter</v>
+        <v>Notch filter</v>
       </c>
       <c r="G14" s="2" t="str">
         <f ca="1">VLOOKUP($A14,Questions!$A$2:$I$106,COLUMN(G14),FALSE)</f>
-        <v>-</v>
+        <v>EQ</v>
       </c>
       <c r="H14" s="2">
         <f ca="1">VLOOKUP($A14,Questions!$A$2:$I$106,COLUMN(H14),FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="str">
         <f ca="1">VLOOKUP($A14,Questions!$A$2:$I$106,COLUMN(I14),FALSE)</f>
-        <v>High pass filter</v>
+        <v>HPF</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="7" t="str">
+      <c r="C15" s="6" t="str">
         <f ca="1">OFFSET($C$14,0,RANK(N2,$N$2:$N$5))</f>
-        <v>Low pass filter</v>
+        <v>LPF</v>
       </c>
       <c r="I15" t="str">
         <f ca="1">$I$14</f>
-        <v>High pass filter</v>
+        <v>HPF</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="7" t="str">
+      <c r="C16" s="6" t="str">
         <f t="shared" ref="C16:C18" ca="1" si="5">OFFSET($C$14,0,RANK(N3,$N$2:$N$5))</f>
-        <v>High pass filter</v>
+        <v>Notch filter</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" ref="I16:I19" ca="1" si="6">$I$14</f>
-        <v>High pass filter</v>
+        <v>HPF</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="7" t="str">
+      <c r="C17" s="6" t="str">
         <f ca="1">OFFSET($C$14,0,RANK(N4,$N$2:$N$5))</f>
-        <v>High cut filter</v>
+        <v>HPF</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>High pass filter</v>
+        <v>HPF</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="7" t="str">
+      <c r="C18" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>-</v>
+        <v>EQ</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>High pass filter</v>
+        <v>HPF</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>High pass filter</v>
+        <v>HPF</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <f ca="1">LARGE(Questions!$A$2:$A$106,4)</f>
-        <v>0.9250542001020956</v>
-      </c>
-      <c r="B20" s="14">
+        <v>0.80800566994206668</v>
+      </c>
+      <c r="B20" s="13">
         <v>4</v>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C20" s="14" t="str">
         <f ca="1">VLOOKUP($A20,Questions!$A$2:$H$106,COLUMN(C20),FALSE)</f>
-        <v>Identify a synonym for figure-of-8</v>
+        <v>Pick the odd one out</v>
       </c>
       <c r="D20" s="2" t="str">
         <f ca="1">VLOOKUP($A20,Questions!$A$2:$I$106,COLUMN(D20),FALSE)</f>
-        <v>Omnidirectional</v>
+        <v>Cut-off frequency</v>
       </c>
       <c r="E20" s="2" t="str">
         <f ca="1">VLOOKUP($A20,Questions!$A$2:$I$106,COLUMN(E20),FALSE)</f>
-        <v>Bidirectional</v>
+        <v>Resonance</v>
       </c>
       <c r="F20" s="2" t="str">
         <f ca="1">VLOOKUP($A20,Questions!$A$2:$I$106,COLUMN(F20),FALSE)</f>
-        <v>Unidirectional</v>
+        <v>ADSR</v>
       </c>
       <c r="G20" s="2" t="str">
         <f ca="1">VLOOKUP($A20,Questions!$A$2:$I$106,COLUMN(G20),FALSE)</f>
-        <v>Cardioid</v>
+        <v>Slope</v>
       </c>
       <c r="H20" s="2">
         <f ca="1">VLOOKUP($A20,Questions!$A$2:$I$106,COLUMN(H20),FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="2" t="str">
         <f ca="1">VLOOKUP($A20,Questions!$A$2:$I$106,COLUMN(I20),FALSE)</f>
-        <v>Bidirectional</v>
+        <v>ADSR</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="7" t="str">
+      <c r="C21" s="6" t="str">
         <f ca="1">OFFSET($C$20,0,RANK(N2,$N$2:$N$5))</f>
-        <v>Bidirectional</v>
+        <v>Resonance</v>
       </c>
       <c r="I21" t="str">
         <f ca="1">$I$20</f>
-        <v>Bidirectional</v>
+        <v>ADSR</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="7" t="str">
+      <c r="C22" s="6" t="str">
         <f t="shared" ref="C22:C24" ca="1" si="7">OFFSET($C$20,0,RANK(N3,$N$2:$N$5))</f>
-        <v>Unidirectional</v>
+        <v>ADSR</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" ref="I22:I25" ca="1" si="8">$I$20</f>
-        <v>Bidirectional</v>
+        <v>ADSR</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7" t="str">
+      <c r="C23" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Omnidirectional</v>
+        <v>Cut-off frequency</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bidirectional</v>
+        <v>ADSR</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="7" t="str">
+      <c r="C24" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Cardioid</v>
+        <v>Slope</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bidirectional</v>
+        <v>ADSR</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I25" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bidirectional</v>
+        <v>ADSR</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <f ca="1">LARGE(Questions!$A$2:$A$106,5)</f>
-        <v>0.90422028063060789</v>
-      </c>
-      <c r="B26" s="16">
+        <v>0.77258859624482901</v>
+      </c>
+      <c r="B26" s="15">
         <v>5</v>
       </c>
-      <c r="C26" s="17" t="str">
+      <c r="C26" s="16" t="str">
         <f ca="1">VLOOKUP($A26,Questions!$A$2:$H$106,COLUMN(C26),FALSE)</f>
-        <v>What is the sound source in subtractive synthesis?</v>
+        <v>Identify the most obvious bass drum mic</v>
       </c>
       <c r="D26" s="2" t="str">
         <f ca="1">VLOOKUP($A26,Questions!$A$2:$I$106,COLUMN(D26),FALSE)</f>
-        <v>Oscillator</v>
+        <v>Shure SM58</v>
       </c>
       <c r="E26" s="2" t="str">
         <f ca="1">VLOOKUP($A26,Questions!$A$2:$I$106,COLUMN(E26),FALSE)</f>
-        <v>Filter</v>
+        <v>AKG D112</v>
       </c>
       <c r="F26" s="2" t="str">
         <f ca="1">VLOOKUP($A26,Questions!$A$2:$I$106,COLUMN(F26),FALSE)</f>
-        <v>Amplifier</v>
+        <v>Rode NT5</v>
       </c>
       <c r="G26" s="2" t="str">
         <f ca="1">VLOOKUP($A26,Questions!$A$2:$I$106,COLUMN(G26),FALSE)</f>
-        <v>Envelope</v>
+        <v>Neumann U87</v>
       </c>
       <c r="H26" s="2">
         <f ca="1">VLOOKUP($A26,Questions!$A$2:$I$106,COLUMN(H26),FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="2" t="str">
         <f ca="1">VLOOKUP($A26,Questions!$A$2:$I$106,COLUMN(I26),FALSE)</f>
-        <v>Oscillator</v>
+        <v>AKG D112</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="7" t="str">
+      <c r="C27" s="6" t="str">
         <f ca="1">OFFSET($C$26,0,RANK(N2,$N$2:$N$5))</f>
-        <v>Filter</v>
+        <v>AKG D112</v>
       </c>
       <c r="I27" t="str">
         <f ca="1">$I$26</f>
-        <v>Oscillator</v>
+        <v>AKG D112</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="7" t="str">
+      <c r="C28" s="6" t="str">
         <f t="shared" ref="C28:C30" ca="1" si="9">OFFSET($C$26,0,RANK(N3,$N$2:$N$5))</f>
-        <v>Amplifier</v>
+        <v>Rode NT5</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" ref="I28:I30" ca="1" si="10">$I$26</f>
-        <v>Oscillator</v>
+        <v>AKG D112</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="7" t="str">
+      <c r="C29" s="6" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Oscillator</v>
+        <v>Shure SM58</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Oscillator</v>
+        <v>AKG D112</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="7" t="str">
+      <c r="C30" s="6" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Envelope</v>
+        <v>Neumann U87</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Oscillator</v>
+        <v>AKG D112</v>
       </c>
     </row>
   </sheetData>
@@ -3951,28 +3949,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="83.1640625" customWidth="1"/>
-    <col min="4" max="8" width="10.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <f ca="1">LARGE(Questions!$A$2:$A$106,1)</f>
-        <v>0.98213321824787503</v>
-      </c>
-      <c r="B2" s="8">
+        <v>0.98753059746505911</v>
+      </c>
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="str">
+      <c r="C2" s="8" t="str">
         <f ca="1">VLOOKUP($A2,Questions!$A$2:$H$106,COLUMN(C2),FALSE)</f>
         <v>Which component controls the waveform?</v>
       </c>
@@ -4002,14 +3999,14 @@
       </c>
       <c r="N2">
         <f ca="1">Quiz!N2</f>
-        <v>0.49931516362901729</v>
+        <v>0.64113533036882375</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="6" t="str">
         <f ca="1">OFFSET($C$2,0,RANK(N2,$N$2:$N$5))</f>
         <v>Filter</v>
       </c>
@@ -4019,14 +4016,14 @@
       </c>
       <c r="N3">
         <f ca="1">Quiz!N3</f>
-        <v>0.48163480433343209</v>
+        <v>0.57872342873131766</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="str">
+      <c r="C4" s="6" t="str">
         <f t="shared" ref="C4:C6" ca="1" si="0">OFFSET($C$2,0,RANK(N3,$N$2:$N$5))</f>
         <v>VCA</v>
       </c>
@@ -4036,14 +4033,14 @@
       </c>
       <c r="N4">
         <f ca="1">Quiz!N4</f>
-        <v>0.82569154295169289</v>
+        <v>0.770799065829324</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="str">
+      <c r="C5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>VCO</v>
       </c>
@@ -4053,14 +4050,14 @@
       </c>
       <c r="N5">
         <f ca="1">Quiz!N5</f>
-        <v>0.37208161470206513</v>
+        <v>0.5274227401918743</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="str">
+      <c r="C6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Low-frequency oscillator</v>
       </c>
@@ -4076,377 +4073,377 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <f ca="1">LARGE(Questions!$A$2:$A$106,2)</f>
-        <v>0.9585682123090552</v>
-      </c>
-      <c r="B8" s="10">
+        <v>0.90977012259966139</v>
+      </c>
+      <c r="B8" s="9">
         <v>2</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="10" t="str">
         <f ca="1">VLOOKUP($A8,Questions!$A$2:$H$106,COLUMN(C8),FALSE)</f>
-        <v>Identify the most obvious bass drum mic</v>
+        <v>Which is the highest note?</v>
       </c>
       <c r="D8" s="2" t="str">
         <f ca="1">VLOOKUP($A8,Questions!$A$2:$I$106,COLUMN(D8),FALSE)</f>
-        <v>Shure SM58</v>
+        <v>4'</v>
       </c>
       <c r="E8" s="2" t="str">
         <f ca="1">VLOOKUP($A8,Questions!$A$2:$I$106,COLUMN(E8),FALSE)</f>
-        <v>AKG D112</v>
+        <v>8'</v>
       </c>
       <c r="F8" s="2" t="str">
         <f ca="1">VLOOKUP($A8,Questions!$A$2:$I$106,COLUMN(F8),FALSE)</f>
-        <v>Rode NT5</v>
+        <v>16'</v>
       </c>
       <c r="G8" s="2" t="str">
         <f ca="1">VLOOKUP($A8,Questions!$A$2:$I$106,COLUMN(G8),FALSE)</f>
-        <v>Neumann U87</v>
+        <v>32'</v>
       </c>
       <c r="H8" s="2">
         <f ca="1">VLOOKUP($A8,Questions!$A$2:$I$106,COLUMN(H8),FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="str">
         <f ca="1">VLOOKUP($A8,Questions!$A$2:$I$106,COLUMN(I8),FALSE)</f>
-        <v>AKG D112</v>
+        <v>4'</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="str">
+      <c r="C9" s="6" t="str">
         <f ca="1">OFFSET($C$8,0,RANK(N2,$N$2:$N$5))</f>
-        <v>AKG D112</v>
+        <v>8'</v>
       </c>
       <c r="I9" t="str">
         <f ca="1">$I$8</f>
-        <v>AKG D112</v>
+        <v>4'</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7" t="str">
+      <c r="C10" s="6" t="str">
         <f t="shared" ref="C10:C12" ca="1" si="2">OFFSET($C$8,0,RANK(N3,$N$2:$N$5))</f>
-        <v>Rode NT5</v>
+        <v>16'</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" ref="I10:I13" ca="1" si="3">$I$8</f>
-        <v>AKG D112</v>
+        <v>4'</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Shure SM58</v>
+      <c r="C11" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>4'</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>AKG D112</v>
+        <v>4'</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Neumann U87</v>
+      <c r="C12" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>32'</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>AKG D112</v>
+        <v>4'</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>AKG D112</v>
+        <v>4'</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <f ca="1">LARGE(Questions!$A$2:$A$106,3)</f>
-        <v>0.93352550668327394</v>
-      </c>
-      <c r="B14" s="12">
+        <v>0.83890487205545095</v>
+      </c>
+      <c r="B14" s="11">
         <v>3</v>
       </c>
-      <c r="C14" s="13" t="str">
+      <c r="C14" s="12" t="str">
         <f ca="1">VLOOKUP($A14,Questions!$A$2:$H$106,COLUMN(C14),FALSE)</f>
-        <v>Pick the odd one out</v>
+        <v>Which will cut low frequencies?</v>
       </c>
       <c r="D14" s="2" t="str">
         <f ca="1">VLOOKUP($A14,Questions!$A$2:$I$106,COLUMN(D14),FALSE)</f>
-        <v>High cut filter</v>
+        <v>HPF</v>
       </c>
       <c r="E14" s="2" t="str">
         <f ca="1">VLOOKUP($A14,Questions!$A$2:$I$106,COLUMN(E14),FALSE)</f>
-        <v>Low pass filter</v>
+        <v>LPF</v>
       </c>
       <c r="F14" s="2" t="str">
         <f ca="1">VLOOKUP($A14,Questions!$A$2:$I$106,COLUMN(F14),FALSE)</f>
-        <v>High pass filter</v>
+        <v>Notch filter</v>
       </c>
       <c r="G14" s="2" t="str">
         <f ca="1">VLOOKUP($A14,Questions!$A$2:$I$106,COLUMN(G14),FALSE)</f>
-        <v>-</v>
+        <v>EQ</v>
       </c>
       <c r="H14" s="2">
         <f ca="1">VLOOKUP($A14,Questions!$A$2:$I$106,COLUMN(H14),FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="str">
         <f ca="1">VLOOKUP($A14,Questions!$A$2:$I$106,COLUMN(I14),FALSE)</f>
-        <v>High pass filter</v>
+        <v>HPF</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="7" t="str">
+      <c r="C15" s="6" t="str">
         <f ca="1">OFFSET($C$14,0,RANK(N2,$N$2:$N$5))</f>
-        <v>Low pass filter</v>
+        <v>LPF</v>
       </c>
       <c r="I15" t="str">
         <f ca="1">$I$14</f>
-        <v>High pass filter</v>
+        <v>HPF</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="7" t="str">
+      <c r="C16" s="6" t="str">
         <f t="shared" ref="C16:C18" ca="1" si="4">OFFSET($C$14,0,RANK(N3,$N$2:$N$5))</f>
-        <v>High pass filter</v>
+        <v>Notch filter</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" ref="I16:I19" ca="1" si="5">$I$14</f>
-        <v>High pass filter</v>
+        <v>HPF</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="7" t="str">
+      <c r="C17" s="6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>High cut filter</v>
+        <v>HPF</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>High pass filter</v>
+        <v>HPF</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="7" t="str">
+      <c r="C18" s="6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>-</v>
+        <v>EQ</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>High pass filter</v>
+        <v>HPF</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>High pass filter</v>
+        <v>HPF</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <f ca="1">LARGE(Questions!$A$2:$A$106,4)</f>
-        <v>0.9250542001020956</v>
-      </c>
-      <c r="B20" s="14">
+        <v>0.80800566994206668</v>
+      </c>
+      <c r="B20" s="13">
         <v>4</v>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C20" s="14" t="str">
         <f ca="1">VLOOKUP($A20,Questions!$A$2:$H$106,COLUMN(C20),FALSE)</f>
-        <v>Identify a synonym for figure-of-8</v>
+        <v>Pick the odd one out</v>
       </c>
       <c r="D20" s="2" t="str">
         <f ca="1">VLOOKUP($A20,Questions!$A$2:$I$106,COLUMN(D20),FALSE)</f>
-        <v>Omnidirectional</v>
+        <v>Cut-off frequency</v>
       </c>
       <c r="E20" s="2" t="str">
         <f ca="1">VLOOKUP($A20,Questions!$A$2:$I$106,COLUMN(E20),FALSE)</f>
-        <v>Bidirectional</v>
+        <v>Resonance</v>
       </c>
       <c r="F20" s="2" t="str">
         <f ca="1">VLOOKUP($A20,Questions!$A$2:$I$106,COLUMN(F20),FALSE)</f>
-        <v>Unidirectional</v>
+        <v>ADSR</v>
       </c>
       <c r="G20" s="2" t="str">
         <f ca="1">VLOOKUP($A20,Questions!$A$2:$I$106,COLUMN(G20),FALSE)</f>
-        <v>Cardioid</v>
+        <v>Slope</v>
       </c>
       <c r="H20" s="2">
         <f ca="1">VLOOKUP($A20,Questions!$A$2:$I$106,COLUMN(H20),FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="2" t="str">
         <f ca="1">VLOOKUP($A20,Questions!$A$2:$I$106,COLUMN(I20),FALSE)</f>
-        <v>Bidirectional</v>
+        <v>ADSR</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="7" t="str">
+      <c r="C21" s="6" t="str">
         <f ca="1">OFFSET($C$20,0,RANK(N2,$N$2:$N$5))</f>
-        <v>Bidirectional</v>
+        <v>Resonance</v>
       </c>
       <c r="I21" t="str">
         <f ca="1">$I$20</f>
-        <v>Bidirectional</v>
+        <v>ADSR</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="7" t="str">
+      <c r="C22" s="6" t="str">
         <f t="shared" ref="C22:C24" ca="1" si="6">OFFSET($C$20,0,RANK(N3,$N$2:$N$5))</f>
-        <v>Unidirectional</v>
+        <v>ADSR</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" ref="I22:I25" ca="1" si="7">$I$20</f>
-        <v>Bidirectional</v>
+        <v>ADSR</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7" t="str">
+      <c r="C23" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Omnidirectional</v>
+        <v>Cut-off frequency</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Bidirectional</v>
+        <v>ADSR</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="7" t="str">
+      <c r="C24" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Cardioid</v>
+        <v>Slope</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Bidirectional</v>
+        <v>ADSR</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I25" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Bidirectional</v>
+        <v>ADSR</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <f ca="1">LARGE(Questions!$A$2:$A$106,5)</f>
-        <v>0.90422028063060789</v>
-      </c>
-      <c r="B26" s="16">
+        <v>0.77258859624482901</v>
+      </c>
+      <c r="B26" s="15">
         <v>5</v>
       </c>
-      <c r="C26" s="17" t="str">
+      <c r="C26" s="16" t="str">
         <f ca="1">VLOOKUP($A26,Questions!$A$2:$H$106,COLUMN(C26),FALSE)</f>
-        <v>What is the sound source in subtractive synthesis?</v>
+        <v>Identify the most obvious bass drum mic</v>
       </c>
       <c r="D26" s="2" t="str">
         <f ca="1">VLOOKUP($A26,Questions!$A$2:$I$106,COLUMN(D26),FALSE)</f>
-        <v>Oscillator</v>
+        <v>Shure SM58</v>
       </c>
       <c r="E26" s="2" t="str">
         <f ca="1">VLOOKUP($A26,Questions!$A$2:$I$106,COLUMN(E26),FALSE)</f>
-        <v>Filter</v>
+        <v>AKG D112</v>
       </c>
       <c r="F26" s="2" t="str">
         <f ca="1">VLOOKUP($A26,Questions!$A$2:$I$106,COLUMN(F26),FALSE)</f>
-        <v>Amplifier</v>
+        <v>Rode NT5</v>
       </c>
       <c r="G26" s="2" t="str">
         <f ca="1">VLOOKUP($A26,Questions!$A$2:$I$106,COLUMN(G26),FALSE)</f>
-        <v>Envelope</v>
+        <v>Neumann U87</v>
       </c>
       <c r="H26" s="2">
         <f ca="1">VLOOKUP($A26,Questions!$A$2:$I$106,COLUMN(H26),FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="2" t="str">
         <f ca="1">VLOOKUP($A26,Questions!$A$2:$I$106,COLUMN(I26),FALSE)</f>
-        <v>Oscillator</v>
+        <v>AKG D112</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="7" t="str">
+      <c r="C27" s="6" t="str">
         <f ca="1">OFFSET($C$26,0,RANK(N2,$N$2:$N$5))</f>
-        <v>Filter</v>
+        <v>AKG D112</v>
       </c>
       <c r="I27" t="str">
         <f ca="1">$I$26</f>
-        <v>Oscillator</v>
+        <v>AKG D112</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="7" t="str">
+      <c r="C28" s="6" t="str">
         <f t="shared" ref="C28:C30" ca="1" si="8">OFFSET($C$26,0,RANK(N3,$N$2:$N$5))</f>
-        <v>Amplifier</v>
+        <v>Rode NT5</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" ref="I28:I30" ca="1" si="9">$I$26</f>
-        <v>Oscillator</v>
+        <v>AKG D112</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="7" t="str">
+      <c r="C29" s="6" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Oscillator</v>
+        <v>Shure SM58</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Oscillator</v>
+        <v>AKG D112</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="7" t="str">
+      <c r="C30" s="6" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Envelope</v>
+        <v>Neumann U87</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Oscillator</v>
+        <v>AKG D112</v>
       </c>
     </row>
   </sheetData>
